--- a/outputs/resultado_desafio2.xlsx
+++ b/outputs/resultado_desafio2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,106 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>João Silva</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Maria Souza</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Carlos Oliveira</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ana Santos</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pedro Costa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Laura Ferreira</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rafael Mendes</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Paula Lima</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>José Almeida</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Marina Oliveira</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
